--- a/Examples/cgorc/cgorc_model.xlsx
+++ b/Examples/cgorc/cgorc_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\ExIOLab\Examples\cgorc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\cgorc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1BEC2D-A38B-4ACB-89DB-E95053F3622A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B95D40E-FE5D-4A38-800C-33CD5DE4B177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="735" windowWidth="16020" windowHeight="12270" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5790" yWindow="240" windowWidth="17265" windowHeight="12525" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -262,24 +262,6 @@
     <t>GEN</t>
   </si>
   <si>
-    <t>B01</t>
-  </si>
-  <si>
-    <t>B02</t>
-  </si>
-  <si>
-    <t>B03</t>
-  </si>
-  <si>
-    <t>B04</t>
-  </si>
-  <si>
-    <t>B05</t>
-  </si>
-  <si>
-    <t>B06</t>
-  </si>
-  <si>
     <t>B11</t>
   </si>
   <si>
@@ -361,30 +343,12 @@
     <t>BW1-BW2</t>
   </si>
   <si>
-    <t>B01-B06</t>
-  </si>
-  <si>
     <t>BW2-BW3</t>
   </si>
   <si>
     <t>B11-B16</t>
   </si>
   <si>
-    <t>B01-B02</t>
-  </si>
-  <si>
-    <t>B02-B03</t>
-  </si>
-  <si>
-    <t>B06-B05</t>
-  </si>
-  <si>
-    <t>B05-B04</t>
-  </si>
-  <si>
-    <t>B03-B04</t>
-  </si>
-  <si>
     <t>B11-B12</t>
   </si>
   <si>
@@ -416,6 +380,42 @@
   </si>
   <si>
     <t>N-Pentane</t>
+  </si>
+  <si>
+    <t>B21</t>
+  </si>
+  <si>
+    <t>B22</t>
+  </si>
+  <si>
+    <t>B23</t>
+  </si>
+  <si>
+    <t>B24</t>
+  </si>
+  <si>
+    <t>B25</t>
+  </si>
+  <si>
+    <t>B26</t>
+  </si>
+  <si>
+    <t>B21-B22</t>
+  </si>
+  <si>
+    <t>B22-B23</t>
+  </si>
+  <si>
+    <t>B23-B24</t>
+  </si>
+  <si>
+    <t>B21-B26</t>
+  </si>
+  <si>
+    <t>B26-B25</t>
+  </si>
+  <si>
+    <t>B25-B24</t>
   </si>
 </sst>
 </file>
@@ -501,23 +501,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{669D661C-74E5-7973-E4EA-50D81780BE98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5671B8D3-4620-7B0E-BBB3-3EA66190F29F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -540,8 +540,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="581025" y="695325"/>
-          <a:ext cx="3895725" cy="5534025"/>
+          <a:off x="1323975" y="838200"/>
+          <a:ext cx="5972175" cy="8077200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -851,7 +851,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -963,7 +963,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
@@ -1175,8 +1175,8 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,7 +1218,7 @@
         <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1229,13 +1229,13 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1246,13 +1246,13 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1263,13 +1263,13 @@
         <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1280,13 +1280,13 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1297,13 +1297,13 @@
         <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -1314,13 +1314,13 @@
         <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1331,13 +1331,13 @@
         <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1348,13 +1348,13 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1365,13 +1365,13 @@
         <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1382,13 +1382,13 @@
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -1399,13 +1399,13 @@
         <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -1433,7 +1433,7 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1447,22 +1447,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>Flows!A2</f>
-        <v>B01</v>
+        <v>B11</v>
       </c>
       <c r="B2">
         <v>1119</v>
@@ -1480,7 +1480,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>Flows!A3</f>
-        <v>B02</v>
+        <v>B12</v>
       </c>
       <c r="B3">
         <v>191.7</v>
@@ -1498,7 +1498,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>Flows!A4</f>
-        <v>B03</v>
+        <v>B13</v>
       </c>
       <c r="B4">
         <v>119.7</v>
@@ -1516,7 +1516,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>Flows!A5</f>
-        <v>B04</v>
+        <v>B14</v>
       </c>
       <c r="B5">
         <v>3.2149999999999999</v>
@@ -1534,7 +1534,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>Flows!A6</f>
-        <v>B05</v>
+        <v>B15</v>
       </c>
       <c r="B6">
         <v>21.4</v>
@@ -1552,7 +1552,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>Flows!A7</f>
-        <v>B06</v>
+        <v>B16</v>
       </c>
       <c r="B7">
         <v>69.73</v>
@@ -1570,7 +1570,7 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>Flows!A8</f>
-        <v>B11</v>
+        <v>B21</v>
       </c>
       <c r="B8">
         <v>436.1</v>
@@ -1588,7 +1588,7 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>Flows!A9</f>
-        <v>B12</v>
+        <v>B22</v>
       </c>
       <c r="B9">
         <v>91.3</v>
@@ -1606,7 +1606,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>Flows!A10</f>
-        <v>B13</v>
+        <v>B23</v>
       </c>
       <c r="B10">
         <v>76.900000000000006</v>
@@ -1624,7 +1624,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>Flows!A11</f>
-        <v>B14</v>
+        <v>B24</v>
       </c>
       <c r="B11">
         <v>2.149</v>
@@ -1642,7 +1642,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>Flows!A12</f>
-        <v>B15</v>
+        <v>B25</v>
       </c>
       <c r="B12">
         <v>5.3959999999999999</v>
@@ -1660,7 +1660,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>Flows!A13</f>
-        <v>B16</v>
+        <v>B26</v>
       </c>
       <c r="B13">
         <v>15.91</v>
@@ -1873,7 +1873,7 @@
         <v>74.751000000000005</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:E24" si="2">C10-C11</f>
+        <f t="shared" ref="C24:D24" si="2">C10-C11</f>
         <v>120.718</v>
       </c>
       <c r="D24">
@@ -2206,7 +2206,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>

--- a/Examples/cgorc/cgorc_model.xlsx
+++ b/Examples/cgorc/cgorc_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\cgorc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\cgorc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B95D40E-FE5D-4A38-800C-33CD5DE4B177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FD624C-61CB-425C-B0ED-B1C44FAF5DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5790" yWindow="240" windowWidth="17265" windowHeight="12525" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="780" windowWidth="25740" windowHeight="14700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </sheets>
   <definedNames>
     <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$1</definedName>
-    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$E$7</definedName>
+    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$D$7</definedName>
     <definedName name="cgam_sample" localSheetId="4">Exergy!$A$1:$C$14</definedName>
     <definedName name="tgas_c0" localSheetId="6">ResourcesCost!$A$1:$B$3</definedName>
     <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
@@ -379,9 +379,6 @@
     <t>ETAT75</t>
   </si>
   <si>
-    <t>N-Pentane</t>
-  </si>
-  <si>
     <t>B21</t>
   </si>
   <si>
@@ -416,6 +413,9 @@
   </si>
   <si>
     <t>B25-B24</t>
+  </si>
+  <si>
+    <t>N_Pentane</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1176,16 +1176,16 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E1" sqref="E1:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="6" width="10.140625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -1204,7 +1204,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1212,7 +1212,7 @@
         <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -1221,7 +1221,7 @@
         <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1229,7 +1229,7 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -1238,7 +1238,7 @@
         <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1246,7 +1246,7 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>82</v>
@@ -1255,7 +1255,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1263,7 +1263,7 @@
         <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>83</v>
@@ -1272,7 +1272,7 @@
         <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1280,7 +1280,7 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
@@ -1289,7 +1289,7 @@
         <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1297,7 +1297,7 @@
         <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>86</v>
@@ -1306,7 +1306,7 @@
         <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1314,16 +1314,16 @@
         <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1331,16 +1331,16 @@
         <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1348,16 +1348,16 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" t="s">
         <v>74</v>
-      </c>
-      <c r="C10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1365,16 +1365,16 @@
         <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1382,16 +1382,16 @@
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1399,7 +1399,7 @@
         <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>87</v>
@@ -1408,7 +1408,7 @@
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1420,7 +1420,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E13</xm:sqref>
+          <xm:sqref>B2:B13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1434,7 +1434,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>89</v>
